--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/13_Bartın_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/13_Bartın_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{230DB991-C4C2-4A38-9850-69D03D5AF9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{884600C7-4045-4474-8E23-9878301F1907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{F4B7289C-18EA-472E-B424-DC6B351B364C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{7241CEA5-001A-4C0B-A431-5D8B01FC226A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -988,14 +988,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{201A5483-B498-4D9A-9A9B-8299BB68EB39}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C7EB9CF2-D58F-490B-B962-B2BABA1B039B}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{6B65F99C-D19A-4BDC-8BBA-6C04F6BD9785}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{974DE58E-FEED-4543-B80E-2C9EF9065126}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{0D5B9188-CE90-4DB3-A441-FD5347E4521C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{CBEF2C9C-5764-4A1C-B648-90952E5E5D43}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{378F089E-80EB-4DAE-95FD-B1E8FC2DC9BD}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{371962FB-9F79-4641-8273-448E1788FEB6}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{95FCD0A5-BF65-49F4-B19A-A97C516175AF}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B75ADF70-4FCD-4CE8-BAF1-AF9E076CCACC}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{F721BF29-ACBD-47AF-8979-37E0CC04ED7F}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{5E5F385D-8683-4178-A4D6-DC325CAA3569}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{0E6A7258-D716-49D8-9B1B-94709C0830F0}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{634CB982-0804-4E05-84B0-F22401A840A1}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{D93EFC0E-EFF8-4FD7-BF60-D1623D2344F0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{FF43B966-111A-4EEB-B362-FC7D37EAFE29}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7752BA3C-C20E-49B1-881B-C88AECE718C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BD22C2-3704-4FB9-B0C1-C58D04AAFADD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2632,18 +2632,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{92A5C592-EB7F-41A0-82BF-4C47A4AFB91D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0225349A-756E-43BF-8ECB-2B7F17422389}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A5CB4E2B-B94E-4154-BD73-3D8340C2B3E5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C431BC2C-9DE5-46D4-A165-1B62AC9714DE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{710DC915-3CB2-42DF-BBC5-76ED8274C363}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D2C604CF-C66F-4767-BAC7-C1F82A49E41D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0040707E-BA9C-4551-96B4-7D17A408BE13}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FC84043-7D31-4E28-A411-4AAF259D5C24}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B04BE3F7-1E15-4C0F-BCB5-533D504AA4E3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{03D321D4-D145-4981-9B89-9358E08A41A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{61A115A2-7AD0-4824-9664-33DC8C684463}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AFAB601-CDAE-46BB-9A3F-5AB780021EF8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3ECD4F09-3D66-4F09-84E4-6E28FF08BACD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8BC7DB1E-4EF6-498C-9F9E-9BA6634076BA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CE033457-6B1D-41FB-8EE4-FAC8528DCFDE}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{396E8A8D-B7E7-4F93-9994-5520CBDE3200}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8305C339-20D0-4950-B56D-9E977416902A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9568F710-03BB-4192-ACB9-1350C420774A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A4284130-C5A7-4772-9CE1-96AF02ED3C64}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80F4AB24-C2A9-4BFE-8B8B-10D1D2824E1C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0339F1DC-7827-4FE2-923C-C02EFBD74F8B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7257BA24-7F85-4789-B1BF-E091447F7273}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{05CF8B70-04C0-4991-A387-B6AF9066DE96}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C95AA86F-A704-40D0-89B7-2D2F22BE3948}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2656,7 +2656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA36907-C88E-40F6-940D-E6BA96EB508D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A71557D-7AD4-4F6C-8EFC-289FCAF7F3E1}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3905,18 +3905,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41D563DD-8D3A-4938-8FBE-4C19AD1C4128}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E748FD61-911A-4012-A666-5741D6DD58ED}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1B025601-0EA7-4EEB-9FAC-79D613B32E27}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{822D1B38-A951-462B-B3CB-1697B7C83AF0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B44BFB1-9D96-4F66-9D0D-953202D57374}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{974F97A2-DD77-49A8-9F0C-F3FC4A7098D7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B507C594-5437-416A-AD95-CA58E10C50C0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E17E7FD-7C59-4EE4-9A14-998C28C5BF97}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3DCF41D-4273-478A-B45C-C3AA48556347}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71D695C6-0750-402A-9BD1-B7185E9ACA3C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A50CF65C-B2AE-43C2-9F62-28B9C1D38CAC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{58E9D0EB-886E-43B3-B0F7-4C39987B0353}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C461A540-8784-4630-920E-3BA0D0CECF6E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33036E96-F4C1-4DD9-92A4-3B63566BA30F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E4D676AF-AE21-43A7-807D-C4F6982A4763}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F8F139D3-2065-43B1-9752-B86B92732D43}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B32BAD7-9886-4E69-A6D2-EABEACCA06E1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{66398347-D9E7-4C66-BFEB-53CFC73B1C09}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{223596FA-0F44-4FDE-87DF-F5DF34CF9258}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BEBE8258-2831-40B7-AD3F-125A45D9DEC8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{34FB2492-BA6D-462B-8133-169611B12202}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EFC0C9B0-1AF4-4F64-A8C1-D641533DF36E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD897EF5-3DAE-43D7-BF00-B3161CA2C9F3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{47E4FD6F-DEF3-4E11-ACE0-0DDA3B1A4623}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3929,7 +3929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1B7932-E534-4477-9C87-48989F24D1E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8114174C-CC3A-405A-BEEA-DD599E90521F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5178,18 +5178,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC08D989-3115-4F70-AB3F-9F2C96B23A2F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6ACA2D0F-3B4A-47F0-9B8E-371338200C53}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C66CF164-8B80-47A6-BD48-98704B464FFA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5DC268A6-3F8A-4661-97D9-D64798E06A16}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8CA93BD3-165A-4C57-97F7-AE6C4761C3AC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{80DD7745-DF27-4268-B43E-42CA4ADFB7EF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97CCA6B9-4341-4738-982A-E91DD0899598}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55DD9B47-7175-42FA-88EE-C2AAE303294B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{07F5EE33-0013-449E-B4CF-6B52EE8F0A56}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{20AC5CC6-69B2-40A7-92BF-E7981453E106}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFEF2D99-32E8-472E-8A09-347BEA64B88E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F6D0B206-17E0-4A3F-8988-E35ED53483D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DEE109A0-1D76-4226-AC14-140A9A4271A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11582118-E5CA-4C9B-A8B0-7B1148DD8051}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D5A851E2-628A-4DA0-86CA-0F64C0046C0D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1C9A6F45-69CD-4952-A1F7-9C3AA1161E47}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3BE6BB57-F1AA-412A-81B4-DF016191536F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A7E5D87E-D280-4D18-80E2-5561AC36DDB9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2F036A72-0A21-4F90-BF20-56B5E0DBEFB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A45E51A5-A2A5-4530-BFC2-8CB5ED585015}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4A3D55C1-82FA-40ED-A55D-27F711BF50F9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A970F68-A4E9-4929-9DE7-7000C7A15455}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E981637B-BF2A-4D49-8986-FB2A53D0DF6D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7BCF2B6B-A599-4072-A3E2-2C28DDE815BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5202,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453E11FC-7B5C-4192-BB86-11E8626B9BF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181703E9-DD14-4366-B025-E54244F88AA3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6447,18 +6447,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{438FF26D-C818-4E01-A028-5F16335475CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE038A4E-5EAF-4106-AF38-99A4C75298D3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{64EAE7C6-1819-437A-81DF-1ECFECB6113E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ABD21F02-1189-4C40-9210-7D9DE3D4DDDA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C6181E4-D9C3-4A19-ABC6-3748174609EA}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0A79A7DC-0683-41BE-BEA8-ADF7D08E1A0C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B06F1B87-BF4E-49F5-944F-75FC32F24A88}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3CF90DC-0155-41FB-A325-EA3159E87A8B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A48C6927-9B86-428B-AD7F-46D6A444E10D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A0C67FF1-586A-4EB6-8723-02DF70921B1D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A01CC3F8-36FF-458D-A042-95FEE124F478}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB012E69-4064-49ED-8D14-4561DC15A9C4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05CEBDFB-7972-4085-ACFD-4FB641866C80}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{969781E6-573F-456E-B496-20631DCE46CF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E54993F4-8480-4310-8F8B-DDEBD6CEE5C2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4B80F53F-D635-40BD-ABEB-8E2881EC27A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D5786CA6-699C-48D9-91BF-69EB4269FE5F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{62CA1D1E-8A87-4DD4-B892-E20E5A72274C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0D08972D-9D27-4178-9C75-9772B210858E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{561FAE81-2714-480E-AC7C-3DEA4699ECCF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{47A9A49B-936B-453A-A401-C6970EA4357F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8C53BD1-0E74-42FE-BBB4-695A15228274}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{96FD33E1-1870-41AC-A327-E9CE4C8DFE6D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2152830-F32E-4186-99AF-79675A67445F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6471,7 +6471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8902B9EF-0A13-4874-A7BC-024DC2DA7856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B9D428-6B3A-4B4F-ADA9-07D22D5E131A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7740,18 +7740,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54AFBE99-351A-4B2B-8730-B867DCE36EAB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B66D6A8A-E45B-48D2-83FB-1A0D8DB409DC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35CB6E07-1389-410C-8602-18FEDDD8B57E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{20ED9195-29CD-4C8F-BA14-26978F801F80}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F44AA900-167B-49EB-BD74-4ECA1251A051}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{56486BC5-BAB2-4018-857F-5E8E9774F9E6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A2DE0D41-30F7-48C6-BA97-D0CF6C2F58A0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91AE5CE8-C78B-4A96-A640-46AB0F3CA8F6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{05040368-32B3-47C6-8FDF-C0BA1358F08B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CC7673C4-94CA-47DC-8E38-5E9AE64B9016}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C8ACCF8F-D96B-4C28-8F85-E97141031DA3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AEFBB28-B8C5-4B99-9B52-A1E04C973942}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C5875ABA-2CEF-4895-BD5F-377849C996F1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38E1F87E-4DAE-491A-816B-66AD6380869E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6B7D1842-D222-4B7A-819B-59F7DFBDAD30}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FDCD01EF-249B-4617-98F0-33EC55B3AD4B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D7C9DFA-80BE-437B-B07E-C4CA0A93C0F5}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DC34F0B2-D499-40EA-B707-F710A46BB339}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{642A3D49-4FA2-40A7-85F3-9CEB878BAAF8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAD38D40-C326-4F8F-BA92-17E009EE38D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1946475F-D7A8-4DC9-9084-4A98E80E45E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{83BD04E6-99F5-4788-86F8-8A417AA33F73}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{966345A0-C157-4C9C-8ECE-25C589DB686B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6DF296C-2B4F-456D-B6D2-81F3EA220612}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7764,7 +7764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1357D68-3C5A-43F5-B235-29C679AB7562}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB31118-D710-4562-9599-8B33BC9F54A2}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9033,18 +9033,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BDF251E3-6620-411D-86A4-C6684D411BA5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4C2FD17-80CE-41F6-9011-FDA0C55E8DA8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F58E1982-65A4-479F-80D5-9C16EC246BC8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4BF249F7-6DCD-4D7F-AA5F-B1C8FCA253E4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A94A9F9-9FE7-4B00-8281-22F462B4F2B2}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{207CE39E-8D76-4732-BB0E-F40DD670ED85}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E4A60050-9A25-42A9-BCEA-93CA40FE1A42}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9F08256-4F6C-41CE-9173-9E03253A265C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EC3CDE77-5064-4F15-AC6B-00C54E19FF42}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C271EF89-A065-4D83-A050-A3CBA28B3A52}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD2EF119-1DE2-4F70-82B1-C4CFF5E36A4E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7CEA4106-8125-4A24-BEB8-6EA8390E5319}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{86DF8D4E-9CC8-4DF7-80F0-BDC27CD05794}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C32BEAB-8043-4FEA-82FB-37FBE5F278A1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D3368E7A-F424-4A53-8BBB-D29486DB6DA5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{253FD009-C345-417A-A4EE-008F1988A36A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A94E5955-2270-4514-AD90-76EE911490F7}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DDCFA3F2-C0BF-4D21-B1FF-C52E0C9CB251}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C551A41-DE7E-4007-B3D9-6B9E43B85B0C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7A06EA39-F66E-4931-906A-CEA431DEC624}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DD88293-2FCB-4D98-B9F3-E887406D0FDD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E326EFD7-CCA9-47AB-958B-BE850BEB10AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C373AFA-9E34-4EC5-9943-CA218DBBF60D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{20A050A2-669A-4393-8308-DEA97262C8C1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9057,7 +9057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7613FF3-9476-4FDC-A79A-572C4CA72241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5561E2-106A-4789-8283-A41461BA774E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10326,18 +10326,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{817C7B54-5125-45D7-B792-626EEFE6F996}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91D15890-C126-48F7-A6BB-3D7C7074557F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5AB8567E-84B7-4778-A514-9A2BF010402A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9E4E4E6A-70DC-4AA7-8770-A54498A7EBA1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B9FE07D7-D6E6-4AEC-A01E-1EEE014EC684}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{452F82F5-B9AE-42CB-B56D-36B83F4B53C4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1136AF5F-7C26-4B72-AC42-E8C3A662EB41}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C8CE6715-D2EE-49D4-9E29-20744CED58F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D177EA0F-B88E-4C5D-9233-F16C3B0E324B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{240A0330-4D3E-46E5-B903-8B805669061B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FAB4502B-2DA6-481C-A709-C6C213908999}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B594918-C445-477B-8765-A07C1E7D2228}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E38CAF1-190B-400A-8FDB-66B05E56234A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8A7442C4-9244-438F-950B-31B579173FF9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4D3BED26-5D09-4F17-9226-41DF5CF29AB5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9CB1E374-B2DF-4FFB-97FF-7C562F43311C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AEA3E7C7-F665-4B00-B3BA-4E301AA87D0E}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BB36CF61-A2C3-4059-8DB7-3F3DD999565A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1A4E9132-66BF-4BBA-AB62-C00F5852FBFB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CAA2D511-6B17-4723-9C52-4285AEFC7FF2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8D06AB84-7052-4B29-AAD3-7B498369E3D8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{46CD2B0D-E85A-4E7A-BBF9-33ABCCC78626}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE605732-B40C-4211-826D-4C89454F1697}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC94FFA0-D250-4ACA-8C56-ECFDCE216174}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10350,7 +10350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2DE6DF-F487-4299-8955-EBE6F3B07420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33505FA2-FD4C-4FC4-B1B5-BE0A4AED0370}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11615,18 +11615,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A7104525-1C1B-4A1B-90A4-03703D9B243D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D28EE07-E76E-4741-A8C3-A023F551373B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F2881D0F-B222-4B30-BA21-79D6ACBC207D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E67E1BFC-93B6-4E1E-8CB9-74FC0B608C44}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{43314A20-8B5B-45EB-AE00-13038C09B8CC}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EFB7F356-F4D3-452F-80A9-E66EA4B6DF02}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3429208B-35F5-493B-9DE1-AEAC5590E27A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1ECCCFB9-A02B-45B7-A283-A80E1A36CDE7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01A4B894-6D8D-46BF-B692-21CC01E7B232}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6CE63995-EE4B-4985-8C13-12FD8390BE8F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F30CAA7-4895-4BFC-9CF9-444A8BE7FC11}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{046C0989-EB18-45F7-82B4-DEC285621F20}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{26C22A20-9542-478B-A5B4-3801AEB98FCB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D86D4705-C12B-4614-8A04-AA8A08299EAB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{79219B5F-7B28-4AEE-9D2E-A39967A3D42C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8DB6721F-7808-4173-BA25-4D5B93981842}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8DFF8065-411F-4982-8725-E2FC63357B1F}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{05101C85-291B-41D9-996A-9C58DDD96B5C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7EF9C034-9113-4158-893E-35796214ED55}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4084EF64-B412-47A4-B111-CD58BFBB41EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F7A070A8-5B67-4592-91BA-EC6AC15D3085}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E13A5926-6277-40C9-B92A-AFD508E2AF56}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{37C39CE5-B6B4-46E8-B5D3-8E274ACA0CBD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9BB4CED4-301F-413F-8515-2F975DF8ADA9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11639,7 +11639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C8EF0D-29AC-4B67-9B0B-565F1B340436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{838D857A-EBA2-4A6E-98A0-0BE679D1843D}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12904,18 +12904,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30893C76-1440-45C7-B6E5-8ED3A9EAADAE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13D99B80-E391-4F0C-8A75-F371E63AC390}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F4610BA9-03C0-4AE0-A7B5-098B72929529}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{31DA71B2-FCB9-44F5-A0B8-9B382960C45B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E66565D-7130-4D43-903E-D1BC7FEF354F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{724A6573-103F-4068-8A21-D6211099D41B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AB5A087D-2273-4189-85B2-17154B303BB8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D2960B5-A5D2-4791-A9C5-023A2DFFA923}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{18F0CF7B-C406-4EB7-9FE7-FACFB87E1F59}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D005B354-C595-4CD6-B868-F2BCF1D04D2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4BDAABE-E496-4C2F-A136-7DF860FC1961}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9830E6C6-78BC-47A5-82A9-434C6ABC36BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B5C5B342-16DC-4FE0-BA75-B5AEF9C2CCFD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FFB83A0A-0D4C-467B-8D33-63FF4C248D7D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6F408D5D-2A0E-4D48-8536-AADEA1C09B53}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{652B2E59-FAF5-4C24-ACAF-90F850E0F21C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C5B8628-FA75-4C33-9CDA-267063A51F63}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{12432C9F-5750-425F-940D-72C7396EBA6E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6326696-1A21-4627-9863-9AA93ADAD9CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F532CCF-D4DA-4B61-BB86-0F71D5B38B8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{523CF229-B886-4F0D-964E-00889FBFF055}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{953394A3-4838-4B67-8B0D-F0F950C77C9B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B88CFC95-A708-412F-BB2A-96100DCAE1E2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B15C5387-3C2F-4980-A13D-BE895DD0DF3C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12928,7 +12928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE3387F-89CF-457A-B9A8-87ADCBD7747C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE278B5D-E38E-4D8F-8F3A-72A1FED10B32}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14193,18 +14193,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B63F8D3-D0ED-418C-B961-414F57D6C37D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55CBB439-D63E-4F6C-9C34-5642FFD11087}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A21CFDFA-E75B-47C0-BD6E-3174F5BB59D5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C89C836A-9E2E-4B64-8B22-87BD7D9B5FCD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{112F6C77-7CE5-4D50-8A82-CF467A79BC4D}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7029DABB-D02F-4EF7-9CE1-66FA8195F431}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBE89B8C-66B5-411E-BA46-119FDDB7A3BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1C56979-2299-4377-87F2-A092DFACB67D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{124A630F-8C60-4843-AC81-CB1D3D2A9CFA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4C9EBF5D-C9C7-419F-8409-161C0E3DCC22}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7BB763C8-6BB4-432A-83B8-48E1F4CCC74B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E44633F9-3E06-494D-9496-A3E6B3460676}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3B54E11-C825-4DFC-B9F1-EE7FBF3ABF78}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3739168-BD72-4946-ADEA-EEA9EDBF22EE}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FB3C7A69-C6F7-4F62-9D25-8EE6F9D65E2C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9194E937-F837-4AAA-BF9A-B9E6344A01A1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BBB92289-86A5-43FE-8C72-203F2B6F40C3}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0663C797-677D-47D7-8BD5-BD8A263AC558}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D00FFBF9-EA92-4D30-902B-CFFF7BB771F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{389E93F4-F933-4DA1-9EC3-74F254AC0BE1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{278F67F2-ED92-4BAB-A91F-89CA2C85276F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EE10E00B-E331-4D39-9836-F5C884A60CA2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5A449720-A193-432F-8270-8D7614C03423}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6504A6F2-97EC-45AD-8661-AE6FCD046F13}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14217,7 +14217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F548F-163C-490F-876D-1E2CF74553CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE97E95-E390-4243-97EB-ED226DCBBCA7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15482,18 +15482,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E1D15D21-F262-4C67-9C71-5EF9CE2DE81E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1AD9012D-4A8D-47E5-807D-25A400967774}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2D797C71-1093-460D-B76A-16F10425A451}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{607F2CA6-87EC-4DE8-90F6-9CD08A200D10}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{45DD8776-AE79-44D4-BBF2-6E6BD990102C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1BA34D4F-4109-4D72-B1A7-7BD24C29BFA5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E055AA56-CBB6-4FB8-AD30-3345C2D2F051}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B0240361-E1CE-45C0-B2F9-9C094494886F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{04A4712D-87B6-4801-8614-CBD9864DE058}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F84D84C0-B961-4DD8-8487-F0CA4B2139FF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FFE379BE-5C9E-4C37-B63D-A8C822A73EAA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{335D582D-E6FA-4F5C-8D41-708694E21AF0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0D2F5471-B4EA-449D-B9D7-847BF82D1360}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9965E422-7375-4246-A7EB-4DFB9A12C75E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{51AFE28E-1F5C-44C8-BD5C-F32D612E3F0C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B17BDA39-439A-453E-B82C-98B34EB763DE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BEDF2035-B13D-41F3-8E0F-A2EE2D14EC7C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0E7907A8-2275-4271-BAA6-A9E6E4030482}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{353B77AB-99B7-4F73-8FCB-C895751CBC33}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CF84471-2124-43E4-B1EA-59E3D4E20717}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3156E252-0B38-4ED0-8AE3-04098E649800}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{90DB8790-1255-4C6E-A160-B3AB8915E1FB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E32FCB5-552C-4002-A187-1349C5A51364}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{93E417C3-2398-46F5-B7A8-418884F1FC00}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15506,7 +15506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1699A9DB-709A-4848-8CA5-BF9A7A95E3EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15000D7F-9276-4FDF-8C74-BCABAE8926A4}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16767,18 +16767,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9CCFC8A9-3371-4245-AE6D-D00DF755CB7A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F153923-23CE-4C86-967E-F44C8FB57C28}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{146F1631-40B1-47E8-B035-12DD240C9470}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7BA9C6F4-E29C-4C45-A54A-F146A5F22F1C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20CE6024-415E-4559-9B9A-34EBA71A38F4}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BA8F5C18-E7F4-4E24-80AC-39C85F705769}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8060F2D6-0E3E-4A95-830B-B5248A336BC4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8E8E19D5-3D06-4356-8809-7A00EB5FFCF3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ACCF75A8-D3FE-4699-8FE5-6BFD8978F96C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{23090717-13CE-4E39-9718-ED0D23860879}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0BCB76AF-3ED8-4B99-BA15-DA01C6AA44CF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F91B3F2-96D8-45E6-9B14-8A20ED65EBE7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E2097F3-B530-4673-851A-85AC0C7D6ED0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28AED479-D551-4A32-9ADA-3F0A844CDE2E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A1CCE032-91C1-4A8D-8B00-85E823E40C52}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB18F208-A536-4A4C-B38F-64E2FA400177}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EBA5E63A-6021-4C4E-A3E8-F704D76F590D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{59E538E8-B3AC-46DB-8970-7783FD9C08CC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B3F3933-EC25-479E-A07E-F60E96C56553}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3BFC5692-B699-46A6-8916-0FE81010CDE2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4570D7D9-F84B-4956-8904-DFAB225E5B89}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{47B251C3-C645-4480-963F-2024B167E206}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3BA9FF9C-AE48-41BE-A8B7-93FA62621966}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B64A8E3-10E4-4AC4-960E-3BCEE70D6AE3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
